--- a/trials/subject_1_trial_list.xlsx
+++ b/trials/subject_1_trial_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bsliang_Coganlabcode\lexical_retro_delay_expdesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bsliang_Coganlabcode\Retrocue_taskscripts\trials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A371C6BC-8481-4007-802B-B84583FB455A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1156DF-BE40-423E-9F02-A676592E0E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12852" yWindow="4620" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="16">
   <si>
     <t>Trial</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>REP_1ST</t>
+  </si>
+  <si>
+    <t>Suggested_Block</t>
   </si>
 </sst>
 </file>
@@ -427,42 +430,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G289"/>
+  <dimension ref="A1:H289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="T279" sqref="T279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -472,20 +478,23 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.94114396349307783</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -495,20 +504,23 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.7703246016798021</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -518,20 +530,23 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.61103258843098973</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -541,20 +556,23 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.43406698975159969</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -564,20 +582,23 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.72489757210747474</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -587,20 +608,23 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.48750198834857222</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -610,20 +634,23 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
         <v>9</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.1081199230481628</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -633,20 +660,23 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.48192461274824899</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -656,20 +686,23 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
         <v>9</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.79209510320867582</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -679,20 +712,23 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.89767366623522049</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -702,20 +738,23 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>8.562649354205476E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -725,20 +764,23 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
+      <c r="D13">
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
         <v>9</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.63454563937085617</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -748,20 +790,23 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
-        <v>8</v>
+      <c r="D14">
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.8439854395260169</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -771,20 +816,23 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
-        <v>10</v>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
         <v>11</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.29831748318971801</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -794,20 +842,23 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
-        <v>8</v>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
         <v>13</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.92602366207592224</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -817,20 +868,23 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
-        <v>10</v>
+      <c r="D17">
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
         <v>11</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.99254606505453158</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -840,20 +894,23 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
-        <v>8</v>
+      <c r="D18">
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
         <v>14</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.60769312461361369</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -863,20 +920,23 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
-        <v>8</v>
+      <c r="D19">
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
         <v>9</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.39308293162366897</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -886,20 +946,23 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
-        <v>10</v>
+      <c r="D20">
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
         <v>14</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.41322170512832329</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -909,20 +972,23 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
-        <v>10</v>
+      <c r="D21">
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
         <v>11</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.17936759304237729</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -932,20 +998,23 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
+      <c r="D22">
+        <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
         <v>13</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.44977635011076489</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -955,20 +1024,23 @@
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" t="s">
-        <v>10</v>
+      <c r="D23">
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
         <v>9</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.73215772624048459</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -978,20 +1050,23 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
+      <c r="D24">
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
         <v>11</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.69310585155079785</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1001,20 +1076,23 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
-        <v>10</v>
+      <c r="D25">
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
         <v>12</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.13259810403065619</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1024,20 +1102,23 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" t="s">
-        <v>8</v>
+      <c r="D26">
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
         <v>11</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>0.63226419311229676</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1047,20 +1128,23 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
+      <c r="D27">
+        <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
         <v>9</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>0.74537690473728446</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1070,20 +1154,23 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" t="s">
-        <v>8</v>
+      <c r="D28">
+        <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
         <v>12</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0.90741827299834243</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1093,20 +1180,23 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" t="s">
-        <v>8</v>
+      <c r="D29">
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
         <v>11</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.55883407029312704</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1116,20 +1206,23 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" t="s">
-        <v>10</v>
+      <c r="D30">
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
         <v>13</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.60637541750733204</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1139,20 +1232,23 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
+      <c r="D31">
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
         <v>14</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.63074498509967603</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1162,20 +1258,23 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" t="s">
-        <v>8</v>
+      <c r="D32">
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
         <v>13</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.7761496918637133</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1185,20 +1284,23 @@
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
+      <c r="D33">
+        <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
         <v>12</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.87386655914240763</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1208,20 +1310,23 @@
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" t="s">
-        <v>10</v>
+      <c r="D34">
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
         <v>14</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.57739933591622061</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1231,20 +1336,23 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" t="s">
-        <v>7</v>
+      <c r="D35">
+        <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
         <v>13</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.31647792309264727</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1254,20 +1362,23 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36" t="s">
-        <v>8</v>
+      <c r="D36">
+        <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
         <v>9</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.56358482809187127</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1277,20 +1388,23 @@
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
+      <c r="D37">
+        <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
         <v>11</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.20833803173989579</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1300,20 +1414,23 @@
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" t="s">
-        <v>8</v>
+      <c r="D38">
+        <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
         <v>12</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>0.37699304166742931</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1323,20 +1440,23 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" t="s">
-        <v>10</v>
+      <c r="D39">
+        <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
         <v>9</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>3.7087774518083323E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1346,20 +1466,23 @@
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40" t="s">
-        <v>7</v>
+      <c r="D40">
+        <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
         <v>13</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>0.77027474607332103</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1369,20 +1492,23 @@
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" t="s">
-        <v>10</v>
+      <c r="D41">
+        <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
         <v>9</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>0.9115696218360213</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1392,20 +1518,23 @@
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42" t="s">
-        <v>10</v>
+      <c r="D42">
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
         <v>13</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>0.10098371027330839</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1415,20 +1544,23 @@
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43" t="s">
-        <v>7</v>
+      <c r="D43">
+        <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
         <v>14</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>0.73199152986123828</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1438,20 +1570,23 @@
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" t="s">
-        <v>8</v>
+      <c r="D44">
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
         <v>13</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>0.56423526823801873</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1461,20 +1596,23 @@
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45" t="s">
-        <v>8</v>
+      <c r="D45">
+        <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" t="s">
         <v>9</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>9.2786868540432721E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1484,20 +1622,23 @@
       <c r="C46">
         <v>1</v>
       </c>
-      <c r="D46" t="s">
-        <v>10</v>
+      <c r="D46">
+        <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" t="s">
         <v>13</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>0.6587085567251284</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1507,20 +1648,23 @@
       <c r="C47">
         <v>1</v>
       </c>
-      <c r="D47" t="s">
-        <v>8</v>
+      <c r="D47">
+        <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
         <v>11</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>0.38334440884739313</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1530,20 +1674,23 @@
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="D48" t="s">
-        <v>10</v>
+      <c r="D48">
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" t="s">
         <v>9</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>0.1029400057246854</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1553,250 +1700,283 @@
       <c r="C49">
         <v>1</v>
       </c>
-      <c r="D49" t="s">
-        <v>7</v>
+      <c r="D49">
+        <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
         <v>11</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>0.75278615911681845</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
-      <c r="D50" t="s">
-        <v>7</v>
+      <c r="D50">
+        <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
         <v>9</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>0.47822056075820207</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
-      <c r="D51" t="s">
-        <v>10</v>
+      <c r="D51">
+        <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" t="s">
         <v>11</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>0.89126654547687945</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
-      <c r="D52" t="s">
-        <v>7</v>
+      <c r="D52">
+        <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s">
         <v>13</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>0.50618777821573357</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
-      <c r="D53" t="s">
-        <v>8</v>
+      <c r="D53">
+        <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
         <v>12</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>0.27193184664829828</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
-      <c r="D54" t="s">
-        <v>10</v>
+      <c r="D54">
+        <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
         <v>9</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>0.40164776349090803</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
-      <c r="D55" t="s">
-        <v>7</v>
+      <c r="D55">
+        <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
         <v>12</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>0.83483658187667564</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
-      <c r="D56" t="s">
-        <v>8</v>
+      <c r="D56">
+        <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
         <v>9</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>7.0849745321747148E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
-      <c r="D57" t="s">
-        <v>10</v>
+      <c r="D57">
+        <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F57" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" t="s">
         <v>11</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>0.960273136413481</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
-      <c r="D58" t="s">
-        <v>7</v>
+      <c r="D58">
+        <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
         <v>13</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>0.55484396525283675</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
-      <c r="D59" t="s">
-        <v>10</v>
+      <c r="D59">
+        <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
         <v>9</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>0.97076554460611064</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1806,20 +1986,23 @@
       <c r="C60">
         <v>2</v>
       </c>
-      <c r="D60" t="s">
-        <v>8</v>
+      <c r="D60">
+        <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" t="s">
         <v>11</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>7.8211972727170953E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1829,20 +2012,23 @@
       <c r="C61">
         <v>2</v>
       </c>
-      <c r="D61" t="s">
-        <v>10</v>
+      <c r="D61">
+        <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
         <v>13</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>0.1686068185460913</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1852,20 +2038,23 @@
       <c r="C62">
         <v>2</v>
       </c>
-      <c r="D62" t="s">
-        <v>10</v>
+      <c r="D62">
+        <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F62" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
         <v>14</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>0.77154575437104089</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1875,20 +2064,23 @@
       <c r="C63">
         <v>2</v>
       </c>
-      <c r="D63" t="s">
-        <v>8</v>
+      <c r="D63">
+        <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
         <v>9</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>0.11925728933632899</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1898,20 +2090,23 @@
       <c r="C64">
         <v>2</v>
       </c>
-      <c r="D64" t="s">
-        <v>7</v>
+      <c r="D64">
+        <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F64" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
         <v>14</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>0.49793849963900128</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1921,20 +2116,23 @@
       <c r="C65">
         <v>2</v>
       </c>
-      <c r="D65" t="s">
-        <v>7</v>
+      <c r="D65">
+        <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
         <v>9</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>0.8569847665042305</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1944,20 +2142,23 @@
       <c r="C66">
         <v>2</v>
       </c>
-      <c r="D66" t="s">
-        <v>8</v>
+      <c r="D66">
+        <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
         <v>11</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>0.33641815444061651</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1967,20 +2168,23 @@
       <c r="C67">
         <v>2</v>
       </c>
-      <c r="D67" t="s">
-        <v>7</v>
+      <c r="D67">
+        <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F67" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s">
         <v>9</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>0.31599985920895352</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1990,20 +2194,23 @@
       <c r="C68">
         <v>2</v>
       </c>
-      <c r="D68" t="s">
-        <v>8</v>
+      <c r="D68">
+        <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
         <v>13</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>0.91431196227489486</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2013,20 +2220,23 @@
       <c r="C69">
         <v>2</v>
       </c>
-      <c r="D69" t="s">
-        <v>10</v>
+      <c r="D69">
+        <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F69" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" t="s">
         <v>12</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>0.94014355369035485</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2036,20 +2246,23 @@
       <c r="C70">
         <v>2</v>
       </c>
-      <c r="D70" t="s">
-        <v>7</v>
+      <c r="D70">
+        <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
         <v>11</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>2.066912309377111E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2059,20 +2272,23 @@
       <c r="C71">
         <v>2</v>
       </c>
-      <c r="D71" t="s">
-        <v>7</v>
+      <c r="D71">
+        <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
         <v>13</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>9.3762124162295457E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2082,20 +2298,23 @@
       <c r="C72">
         <v>2</v>
       </c>
-      <c r="D72" t="s">
-        <v>10</v>
+      <c r="D72">
+        <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F72" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
         <v>12</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>0.70907171288160353</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2105,20 +2324,23 @@
       <c r="C73">
         <v>2</v>
       </c>
-      <c r="D73" t="s">
-        <v>7</v>
+      <c r="D73">
+        <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
         <v>14</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>0.38449359955510309</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2128,20 +2350,23 @@
       <c r="C74">
         <v>2</v>
       </c>
-      <c r="D74" t="s">
-        <v>10</v>
+      <c r="D74">
+        <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F74" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
         <v>11</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>0.79124826662517789</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2151,20 +2376,23 @@
       <c r="C75">
         <v>2</v>
       </c>
-      <c r="D75" t="s">
-        <v>8</v>
+      <c r="D75">
+        <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
         <v>13</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>0.1093508693316361</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2174,20 +2402,23 @@
       <c r="C76">
         <v>2</v>
       </c>
-      <c r="D76" t="s">
-        <v>10</v>
+      <c r="D76">
+        <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F76" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
         <v>9</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>0.64069826657980089</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2197,20 +2428,23 @@
       <c r="C77">
         <v>2</v>
       </c>
-      <c r="D77" t="s">
-        <v>10</v>
+      <c r="D77">
+        <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F77" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" t="s">
         <v>11</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>0.33026700377005858</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2220,20 +2454,23 @@
       <c r="C78">
         <v>2</v>
       </c>
-      <c r="D78" t="s">
-        <v>7</v>
+      <c r="D78">
+        <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" t="s">
         <v>9</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>0.38346398829535572</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2243,20 +2480,23 @@
       <c r="C79">
         <v>2</v>
       </c>
-      <c r="D79" t="s">
-        <v>7</v>
+      <c r="D79">
+        <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
         <v>11</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>0.61582781155037747</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2266,20 +2506,23 @@
       <c r="C80">
         <v>2</v>
       </c>
-      <c r="D80" t="s">
-        <v>10</v>
+      <c r="D80">
+        <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
         <v>13</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>0.7314389145277933</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2289,20 +2532,23 @@
       <c r="C81">
         <v>2</v>
       </c>
-      <c r="D81" t="s">
-        <v>8</v>
+      <c r="D81">
+        <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F81" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" t="s">
         <v>12</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>0.23064650094877329</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2312,20 +2558,23 @@
       <c r="C82">
         <v>2</v>
       </c>
-      <c r="D82" t="s">
-        <v>10</v>
+      <c r="D82">
+        <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F82" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" t="s">
         <v>14</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>0.70706377026911993</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2335,20 +2584,23 @@
       <c r="C83">
         <v>2</v>
       </c>
-      <c r="D83" t="s">
-        <v>8</v>
+      <c r="D83">
+        <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F83" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" t="s">
         <v>9</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>0.66984995283737248</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2358,20 +2610,23 @@
       <c r="C84">
         <v>2</v>
       </c>
-      <c r="D84" t="s">
-        <v>8</v>
+      <c r="D84">
+        <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
         <v>13</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>4.8420358675039687E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2381,20 +2636,23 @@
       <c r="C85">
         <v>2</v>
       </c>
-      <c r="D85" t="s">
-        <v>7</v>
+      <c r="D85">
+        <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
         <v>11</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>0.72388004281469309</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2404,20 +2662,23 @@
       <c r="C86">
         <v>2</v>
       </c>
-      <c r="D86" t="s">
-        <v>10</v>
+      <c r="D86">
+        <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F86" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" t="s">
         <v>9</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>0.54475311509546298</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2427,20 +2688,23 @@
       <c r="C87">
         <v>2</v>
       </c>
-      <c r="D87" t="s">
-        <v>8</v>
+      <c r="D87">
+        <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F87" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" t="s">
         <v>11</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>0.35806339439063978</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2450,20 +2714,23 @@
       <c r="C88">
         <v>2</v>
       </c>
-      <c r="D88" t="s">
-        <v>8</v>
+      <c r="D88">
+        <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
         <v>14</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>0.1552153902910457</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2473,20 +2740,23 @@
       <c r="C89">
         <v>2</v>
       </c>
-      <c r="D89" t="s">
-        <v>8</v>
+      <c r="D89">
+        <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F89" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" t="s">
         <v>9</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>0.84952311472824227</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2496,20 +2766,23 @@
       <c r="C90">
         <v>2</v>
       </c>
-      <c r="D90" t="s">
-        <v>10</v>
+      <c r="D90">
+        <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F90" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" t="s">
         <v>13</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>0.91787266261133071</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2519,20 +2792,23 @@
       <c r="C91">
         <v>2</v>
       </c>
-      <c r="D91" t="s">
-        <v>8</v>
+      <c r="D91">
+        <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F91" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" t="s">
         <v>14</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>0.53387018275691356</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2542,20 +2818,23 @@
       <c r="C92">
         <v>2</v>
       </c>
-      <c r="D92" t="s">
-        <v>7</v>
+      <c r="D92">
+        <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
         <v>12</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>0.42058111861975722</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2565,20 +2844,23 @@
       <c r="C93">
         <v>2</v>
       </c>
-      <c r="D93" t="s">
-        <v>8</v>
+      <c r="D93">
+        <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F93" t="s">
+        <v>7</v>
+      </c>
+      <c r="G93" t="s">
         <v>13</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>0.30158361579183413</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2588,20 +2870,23 @@
       <c r="C94">
         <v>2</v>
       </c>
-      <c r="D94" t="s">
-        <v>8</v>
+      <c r="D94">
+        <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
         <v>11</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>0.98845367115712579</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2611,20 +2896,23 @@
       <c r="C95">
         <v>2</v>
       </c>
-      <c r="D95" t="s">
-        <v>7</v>
+      <c r="D95">
+        <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
         <v>13</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>0.3561668458962689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2634,20 +2922,23 @@
       <c r="C96">
         <v>2</v>
       </c>
-      <c r="D96" t="s">
-        <v>7</v>
+      <c r="D96">
+        <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F96" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" t="s">
         <v>11</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>0.70031536466697719</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2657,480 +2948,543 @@
       <c r="C97">
         <v>2</v>
       </c>
-      <c r="D97" t="s">
-        <v>10</v>
+      <c r="D97">
+        <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F97" t="s">
+        <v>7</v>
+      </c>
+      <c r="G97" t="s">
         <v>13</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>0.31310537082200263</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98">
         <v>3</v>
       </c>
-      <c r="D98" t="s">
-        <v>8</v>
+      <c r="D98">
+        <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
         <v>13</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>0.80592538887378706</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C99">
         <v>3</v>
       </c>
-      <c r="D99" t="s">
-        <v>10</v>
+      <c r="D99">
+        <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F99" t="s">
+        <v>7</v>
+      </c>
+      <c r="G99" t="s">
         <v>11</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>0.89251509943623009</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100">
         <v>3</v>
       </c>
-      <c r="D100" t="s">
-        <v>8</v>
+      <c r="D100">
+        <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F100" t="s">
+        <v>7</v>
+      </c>
+      <c r="G100" t="s">
         <v>9</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>0.74490451590650453</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101">
         <v>3</v>
       </c>
-      <c r="D101" t="s">
-        <v>10</v>
+      <c r="D101">
+        <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F101" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" t="s">
         <v>13</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>1.250873535692754E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102">
         <v>3</v>
       </c>
-      <c r="D102" t="s">
-        <v>8</v>
+      <c r="D102">
+        <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F102" t="s">
+        <v>7</v>
+      </c>
+      <c r="G102" t="s">
         <v>12</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>0.17892816203303941</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103">
         <v>3</v>
       </c>
-      <c r="D103" t="s">
-        <v>10</v>
+      <c r="D103">
+        <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F103" t="s">
+        <v>7</v>
+      </c>
+      <c r="G103" t="s">
         <v>9</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>0.94599810664310702</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104">
         <v>3</v>
       </c>
-      <c r="D104" t="s">
-        <v>7</v>
+      <c r="D104">
+        <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F104" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" t="s">
         <v>12</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>0.90741068823217175</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105">
         <v>3</v>
       </c>
-      <c r="D105" t="s">
-        <v>7</v>
+      <c r="D105">
+        <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" t="s">
         <v>11</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>0.82234482997030356</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106">
         <v>3</v>
       </c>
-      <c r="D106" t="s">
-        <v>10</v>
+      <c r="D106">
+        <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F106" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" t="s">
         <v>9</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>0.36608560630601178</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C107">
         <v>3</v>
       </c>
-      <c r="D107" t="s">
-        <v>7</v>
+      <c r="D107">
+        <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
         <v>13</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>0.89270852482705099</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C108">
         <v>3</v>
       </c>
-      <c r="D108" t="s">
-        <v>10</v>
+      <c r="D108">
+        <v>3</v>
       </c>
       <c r="E108" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F108" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" t="s">
         <v>14</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>0.18831754451576249</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C109">
         <v>3</v>
       </c>
-      <c r="D109" t="s">
-        <v>7</v>
+      <c r="D109">
+        <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F109" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" t="s">
         <v>11</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>0.75114815844691496</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110">
         <v>3</v>
       </c>
-      <c r="D110" t="s">
-        <v>8</v>
+      <c r="D110">
+        <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
         <v>13</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>0.43728459300016831</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C111">
         <v>3</v>
       </c>
-      <c r="D111" t="s">
-        <v>10</v>
+      <c r="D111">
+        <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F111" t="s">
+        <v>7</v>
+      </c>
+      <c r="G111" t="s">
         <v>11</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>0.12717812809039991</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C112">
         <v>3</v>
       </c>
-      <c r="D112" t="s">
-        <v>8</v>
+      <c r="D112">
+        <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F112" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
         <v>9</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>0.4843330142909128</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C113">
         <v>3</v>
       </c>
-      <c r="D113" t="s">
-        <v>8</v>
+      <c r="D113">
+        <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F113" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113" t="s">
         <v>13</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>0.66225014209544064</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C114">
         <v>3</v>
       </c>
-      <c r="D114" t="s">
-        <v>8</v>
+      <c r="D114">
+        <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F114" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" t="s">
         <v>14</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>0.84487683119125112</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C115">
         <v>3</v>
       </c>
-      <c r="D115" t="s">
-        <v>7</v>
+      <c r="D115">
+        <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
         <v>9</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>0.68854974361257493</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C116">
         <v>3</v>
       </c>
-      <c r="D116" t="s">
-        <v>10</v>
+      <c r="D116">
+        <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F116" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" t="s">
         <v>11</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>6.7549641847209685E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C117">
         <v>3</v>
       </c>
-      <c r="D117" t="s">
-        <v>7</v>
+      <c r="D117">
+        <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F117" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" t="s">
         <v>9</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>0.62826698465492103</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3140,20 +3494,23 @@
       <c r="C118">
         <v>3</v>
       </c>
-      <c r="D118" t="s">
-        <v>10</v>
+      <c r="D118">
+        <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F118" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" t="s">
         <v>13</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>0.18758231237415501</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3163,20 +3520,23 @@
       <c r="C119">
         <v>3</v>
       </c>
-      <c r="D119" t="s">
-        <v>7</v>
+      <c r="D119">
+        <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F119" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" t="s">
         <v>11</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>0.99629823084525682</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3186,20 +3546,23 @@
       <c r="C120">
         <v>3</v>
       </c>
-      <c r="D120" t="s">
-        <v>10</v>
+      <c r="D120">
+        <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F120" t="s">
+        <v>7</v>
+      </c>
+      <c r="G120" t="s">
         <v>13</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>0.6384044420848618</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3209,20 +3572,23 @@
       <c r="C121">
         <v>3</v>
       </c>
-      <c r="D121" t="s">
-        <v>8</v>
+      <c r="D121">
+        <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F121" t="s">
+        <v>7</v>
+      </c>
+      <c r="G121" t="s">
         <v>9</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>0.28505490732796201</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3232,20 +3598,23 @@
       <c r="C122">
         <v>3</v>
       </c>
-      <c r="D122" t="s">
-        <v>7</v>
+      <c r="D122">
+        <v>3</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F122" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" t="s">
         <v>12</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>0.78967104161341939</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3255,20 +3624,23 @@
       <c r="C123">
         <v>3</v>
       </c>
-      <c r="D123" t="s">
-        <v>8</v>
+      <c r="D123">
+        <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F123" t="s">
+        <v>7</v>
+      </c>
+      <c r="G123" t="s">
         <v>14</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>0.35711115247194031</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3278,20 +3650,23 @@
       <c r="C124">
         <v>3</v>
       </c>
-      <c r="D124" t="s">
-        <v>8</v>
+      <c r="D124">
+        <v>3</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F124" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" t="s">
         <v>11</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>0.39618171777468753</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3301,20 +3676,23 @@
       <c r="C125">
         <v>3</v>
       </c>
-      <c r="D125" t="s">
-        <v>7</v>
+      <c r="D125">
+        <v>3</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" t="s">
         <v>13</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>0.76595951201271861</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3324,20 +3702,23 @@
       <c r="C126">
         <v>3</v>
       </c>
-      <c r="D126" t="s">
-        <v>10</v>
+      <c r="D126">
+        <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F126" t="s">
+        <v>8</v>
+      </c>
+      <c r="G126" t="s">
         <v>9</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>3.2824947169761587E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3347,20 +3728,23 @@
       <c r="C127">
         <v>3</v>
       </c>
-      <c r="D127" t="s">
-        <v>7</v>
+      <c r="D127">
+        <v>3</v>
       </c>
       <c r="E127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F127" t="s">
+        <v>8</v>
+      </c>
+      <c r="G127" t="s">
         <v>13</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>7.1180643680675448E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3370,20 +3754,23 @@
       <c r="C128">
         <v>3</v>
       </c>
-      <c r="D128" t="s">
-        <v>10</v>
+      <c r="D128">
+        <v>3</v>
       </c>
       <c r="E128" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F128" t="s">
+        <v>8</v>
+      </c>
+      <c r="G128" t="s">
         <v>12</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>2.178278584867643E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3393,20 +3780,23 @@
       <c r="C129">
         <v>3</v>
       </c>
-      <c r="D129" t="s">
-        <v>8</v>
+      <c r="D129">
+        <v>3</v>
       </c>
       <c r="E129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F129" t="s">
+        <v>7</v>
+      </c>
+      <c r="G129" t="s">
         <v>11</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>1.2932568161865939E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3416,20 +3806,23 @@
       <c r="C130">
         <v>3</v>
       </c>
-      <c r="D130" t="s">
-        <v>8</v>
+      <c r="D130">
+        <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F130" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" t="s">
         <v>12</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>0.55958076751980368</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3439,20 +3832,23 @@
       <c r="C131">
         <v>3</v>
       </c>
-      <c r="D131" t="s">
-        <v>7</v>
+      <c r="D131">
+        <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F131" t="s">
+        <v>8</v>
+      </c>
+      <c r="G131" t="s">
         <v>9</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>0.28964770961546538</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3462,20 +3858,23 @@
       <c r="C132">
         <v>3</v>
       </c>
-      <c r="D132" t="s">
-        <v>7</v>
+      <c r="D132">
+        <v>3</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F132" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" t="s">
         <v>11</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>0.26750148229950682</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3485,20 +3884,23 @@
       <c r="C133">
         <v>3</v>
       </c>
-      <c r="D133" t="s">
-        <v>8</v>
+      <c r="D133">
+        <v>3</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F133" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" t="s">
         <v>9</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>0.4922798516229695</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3508,20 +3910,23 @@
       <c r="C134">
         <v>3</v>
       </c>
-      <c r="D134" t="s">
-        <v>10</v>
+      <c r="D134">
+        <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F134" t="s">
+        <v>7</v>
+      </c>
+      <c r="G134" t="s">
         <v>14</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>0.91784408337907453</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3531,20 +3936,23 @@
       <c r="C135">
         <v>3</v>
       </c>
-      <c r="D135" t="s">
-        <v>8</v>
+      <c r="D135">
+        <v>3</v>
       </c>
       <c r="E135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G135" t="s">
         <v>11</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>0.84041531299105909</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3554,20 +3962,23 @@
       <c r="C136">
         <v>3</v>
       </c>
-      <c r="D136" t="s">
-        <v>10</v>
+      <c r="D136">
+        <v>3</v>
       </c>
       <c r="E136" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F136" t="s">
+        <v>7</v>
+      </c>
+      <c r="G136" t="s">
         <v>9</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>2.1596782356798069E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3577,20 +3988,23 @@
       <c r="C137">
         <v>3</v>
       </c>
-      <c r="D137" t="s">
-        <v>8</v>
+      <c r="D137">
+        <v>3</v>
       </c>
       <c r="E137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F137" t="s">
+        <v>7</v>
+      </c>
+      <c r="G137" t="s">
         <v>13</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>0.73162151796445973</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3600,20 +4014,23 @@
       <c r="C138">
         <v>3</v>
       </c>
-      <c r="D138" t="s">
-        <v>10</v>
+      <c r="D138">
+        <v>3</v>
       </c>
       <c r="E138" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F138" t="s">
+        <v>8</v>
+      </c>
+      <c r="G138" t="s">
         <v>11</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>0.58734009319288982</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3623,20 +4040,23 @@
       <c r="C139">
         <v>3</v>
       </c>
-      <c r="D139" t="s">
-        <v>10</v>
+      <c r="D139">
+        <v>3</v>
       </c>
       <c r="E139" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F139" t="s">
+        <v>7</v>
+      </c>
+      <c r="G139" t="s">
         <v>12</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>0.82376650051550482</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3646,20 +4066,23 @@
       <c r="C140">
         <v>3</v>
       </c>
-      <c r="D140" t="s">
-        <v>7</v>
+      <c r="D140">
+        <v>3</v>
       </c>
       <c r="E140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F140" t="s">
+        <v>8</v>
+      </c>
+      <c r="G140" t="s">
         <v>14</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>0.76357979872388226</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3669,20 +4092,23 @@
       <c r="C141">
         <v>3</v>
       </c>
-      <c r="D141" t="s">
-        <v>10</v>
+      <c r="D141">
+        <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F141" t="s">
+        <v>7</v>
+      </c>
+      <c r="G141" t="s">
         <v>13</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>0.99890137573390014</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3692,20 +4118,23 @@
       <c r="C142">
         <v>3</v>
       </c>
-      <c r="D142" t="s">
-        <v>7</v>
+      <c r="D142">
+        <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F142" t="s">
+        <v>8</v>
+      </c>
+      <c r="G142" t="s">
         <v>9</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>0.24061409351705851</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3715,20 +4144,23 @@
       <c r="C143">
         <v>3</v>
       </c>
-      <c r="D143" t="s">
-        <v>8</v>
+      <c r="D143">
+        <v>3</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F143" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" t="s">
         <v>11</v>
       </c>
-      <c r="G143">
+      <c r="H143">
         <v>0.33235332758426861</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3738,20 +4170,23 @@
       <c r="C144">
         <v>3</v>
       </c>
-      <c r="D144" t="s">
-        <v>7</v>
+      <c r="D144">
+        <v>3</v>
       </c>
       <c r="E144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F144" t="s">
+        <v>8</v>
+      </c>
+      <c r="G144" t="s">
         <v>13</v>
       </c>
-      <c r="G144">
+      <c r="H144">
         <v>0.61726667723269357</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3761,710 +4196,803 @@
       <c r="C145">
         <v>3</v>
       </c>
-      <c r="D145" t="s">
-        <v>7</v>
+      <c r="D145">
+        <v>3</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F145" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" t="s">
         <v>14</v>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>0.6415454409308583</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C146">
         <v>4</v>
       </c>
-      <c r="D146" t="s">
-        <v>10</v>
+      <c r="D146">
+        <v>4</v>
       </c>
       <c r="E146" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F146" t="s">
+        <v>8</v>
+      </c>
+      <c r="G146" t="s">
         <v>12</v>
       </c>
-      <c r="G146">
+      <c r="H146">
         <v>6.0840512812461063E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C147">
         <v>4</v>
       </c>
-      <c r="D147" t="s">
-        <v>8</v>
+      <c r="D147">
+        <v>4</v>
       </c>
       <c r="E147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F147" t="s">
+        <v>7</v>
+      </c>
+      <c r="G147" t="s">
         <v>11</v>
       </c>
-      <c r="G147">
+      <c r="H147">
         <v>0.43962494681214442</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C148">
         <v>4</v>
       </c>
-      <c r="D148" t="s">
-        <v>10</v>
+      <c r="D148">
+        <v>4</v>
       </c>
       <c r="E148" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F148" t="s">
+        <v>8</v>
+      </c>
+      <c r="G148" t="s">
         <v>14</v>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>0.63934227136750432</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C149">
         <v>4</v>
       </c>
-      <c r="D149" t="s">
-        <v>7</v>
+      <c r="D149">
+        <v>4</v>
       </c>
       <c r="E149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F149" t="s">
+        <v>8</v>
+      </c>
+      <c r="G149" t="s">
         <v>9</v>
       </c>
-      <c r="G149">
+      <c r="H149">
         <v>0.47426768934796659</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C150">
         <v>4</v>
       </c>
-      <c r="D150" t="s">
-        <v>10</v>
+      <c r="D150">
+        <v>4</v>
       </c>
       <c r="E150" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F150" t="s">
+        <v>8</v>
+      </c>
+      <c r="G150" t="s">
         <v>11</v>
       </c>
-      <c r="G150">
+      <c r="H150">
         <v>0.206464185446287</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C151">
         <v>4</v>
       </c>
-      <c r="D151" t="s">
-        <v>7</v>
+      <c r="D151">
+        <v>4</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F151" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" t="s">
         <v>13</v>
       </c>
-      <c r="G151">
+      <c r="H151">
         <v>0.57713681048895316</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C152">
         <v>4</v>
       </c>
-      <c r="D152" t="s">
-        <v>7</v>
+      <c r="D152">
+        <v>4</v>
       </c>
       <c r="E152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F152" t="s">
+        <v>8</v>
+      </c>
+      <c r="G152" t="s">
         <v>11</v>
       </c>
-      <c r="G152">
+      <c r="H152">
         <v>0.43912267890334011</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C153">
         <v>4</v>
       </c>
-      <c r="D153" t="s">
-        <v>10</v>
+      <c r="D153">
+        <v>4</v>
       </c>
       <c r="E153" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F153" t="s">
+        <v>7</v>
+      </c>
+      <c r="G153" t="s">
         <v>14</v>
       </c>
-      <c r="G153">
+      <c r="H153">
         <v>0.60179085593913251</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C154">
         <v>4</v>
       </c>
-      <c r="D154" t="s">
-        <v>8</v>
+      <c r="D154">
+        <v>4</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F154" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" t="s">
         <v>12</v>
       </c>
-      <c r="G154">
+      <c r="H154">
         <v>0.16562200492362361</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C155">
         <v>4</v>
       </c>
-      <c r="D155" t="s">
-        <v>10</v>
+      <c r="D155">
+        <v>4</v>
       </c>
       <c r="E155" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F155" t="s">
+        <v>7</v>
+      </c>
+      <c r="G155" t="s">
         <v>11</v>
       </c>
-      <c r="G155">
+      <c r="H155">
         <v>0.68622748075270057</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C156">
         <v>4</v>
       </c>
-      <c r="D156" t="s">
-        <v>8</v>
+      <c r="D156">
+        <v>4</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F156" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" t="s">
         <v>9</v>
       </c>
-      <c r="G156">
+      <c r="H156">
         <v>0.77303898531018977</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C157">
         <v>4</v>
       </c>
-      <c r="D157" t="s">
-        <v>7</v>
+      <c r="D157">
+        <v>4</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F157" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" t="s">
         <v>12</v>
       </c>
-      <c r="G157">
+      <c r="H157">
         <v>0.84955188602746312</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C158">
         <v>4</v>
       </c>
-      <c r="D158" t="s">
-        <v>7</v>
+      <c r="D158">
+        <v>4</v>
       </c>
       <c r="E158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F158" t="s">
+        <v>8</v>
+      </c>
+      <c r="G158" t="s">
         <v>9</v>
       </c>
-      <c r="G158">
+      <c r="H158">
         <v>0.1123488453855489</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C159">
         <v>4</v>
       </c>
-      <c r="D159" t="s">
-        <v>7</v>
+      <c r="D159">
+        <v>4</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F159" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" t="s">
         <v>11</v>
       </c>
-      <c r="G159">
+      <c r="H159">
         <v>1.936694237030023E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C160">
         <v>4</v>
       </c>
-      <c r="D160" t="s">
-        <v>10</v>
+      <c r="D160">
+        <v>4</v>
       </c>
       <c r="E160" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F160" t="s">
+        <v>8</v>
+      </c>
+      <c r="G160" t="s">
         <v>13</v>
       </c>
-      <c r="G160">
+      <c r="H160">
         <v>6.0074214102437067E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C161">
         <v>4</v>
       </c>
-      <c r="D161" t="s">
-        <v>10</v>
+      <c r="D161">
+        <v>4</v>
       </c>
       <c r="E161" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F161" t="s">
+        <v>7</v>
+      </c>
+      <c r="G161" t="s">
         <v>11</v>
       </c>
-      <c r="G161">
+      <c r="H161">
         <v>7.6148975868401081E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C162">
         <v>4</v>
       </c>
-      <c r="D162" t="s">
-        <v>8</v>
+      <c r="D162">
+        <v>4</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F162" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" t="s">
         <v>13</v>
       </c>
-      <c r="G162">
+      <c r="H162">
         <v>0.1932022116930221</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C163">
         <v>4</v>
       </c>
-      <c r="D163" t="s">
-        <v>7</v>
+      <c r="D163">
+        <v>4</v>
       </c>
       <c r="E163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F163" t="s">
+        <v>8</v>
+      </c>
+      <c r="G163" t="s">
         <v>14</v>
       </c>
-      <c r="G163">
+      <c r="H163">
         <v>0.35913292739097802</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C164">
         <v>4</v>
       </c>
-      <c r="D164" t="s">
-        <v>7</v>
+      <c r="D164">
+        <v>4</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F164" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" t="s">
         <v>9</v>
       </c>
-      <c r="G164">
+      <c r="H164">
         <v>0.1402006588894141</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C165">
         <v>4</v>
       </c>
-      <c r="D165" t="s">
-        <v>8</v>
+      <c r="D165">
+        <v>4</v>
       </c>
       <c r="E165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F165" t="s">
+        <v>7</v>
+      </c>
+      <c r="G165" t="s">
         <v>11</v>
       </c>
-      <c r="G165">
+      <c r="H165">
         <v>1.8416271391318299E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C166">
         <v>4</v>
       </c>
-      <c r="D166" t="s">
-        <v>10</v>
+      <c r="D166">
+        <v>4</v>
       </c>
       <c r="E166" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F166" t="s">
+        <v>8</v>
+      </c>
+      <c r="G166" t="s">
         <v>9</v>
       </c>
-      <c r="G166">
+      <c r="H166">
         <v>0.73160243892942189</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C167">
         <v>4</v>
       </c>
-      <c r="D167" t="s">
-        <v>7</v>
+      <c r="D167">
+        <v>4</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F167" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" t="s">
         <v>14</v>
       </c>
-      <c r="G167">
+      <c r="H167">
         <v>0.45686332954452052</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C168">
         <v>4</v>
       </c>
-      <c r="D168" t="s">
-        <v>7</v>
+      <c r="D168">
+        <v>4</v>
       </c>
       <c r="E168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F168" t="s">
+        <v>8</v>
+      </c>
+      <c r="G168" t="s">
         <v>11</v>
       </c>
-      <c r="G168">
+      <c r="H168">
         <v>0.29442844507057891</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C169">
         <v>4</v>
       </c>
-      <c r="D169" t="s">
-        <v>7</v>
+      <c r="D169">
+        <v>4</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F169" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" t="s">
         <v>9</v>
       </c>
-      <c r="G169">
+      <c r="H169">
         <v>0.83729969498579437</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C170">
         <v>4</v>
       </c>
-      <c r="D170" t="s">
-        <v>8</v>
+      <c r="D170">
+        <v>4</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F170" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" t="s">
         <v>11</v>
       </c>
-      <c r="G170">
+      <c r="H170">
         <v>0.7851596948013575</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C171">
         <v>4</v>
       </c>
-      <c r="D171" t="s">
-        <v>7</v>
+      <c r="D171">
+        <v>4</v>
       </c>
       <c r="E171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F171" t="s">
+        <v>8</v>
+      </c>
+      <c r="G171" t="s">
         <v>12</v>
       </c>
-      <c r="G171">
+      <c r="H171">
         <v>0.81543461916184079</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C172">
         <v>4</v>
       </c>
-      <c r="D172" t="s">
-        <v>8</v>
+      <c r="D172">
+        <v>4</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F172" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" t="s">
         <v>9</v>
       </c>
-      <c r="G172">
+      <c r="H172">
         <v>0.89488989002551167</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C173">
         <v>4</v>
       </c>
-      <c r="D173" t="s">
-        <v>8</v>
+      <c r="D173">
+        <v>4</v>
       </c>
       <c r="E173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F173" t="s">
+        <v>7</v>
+      </c>
+      <c r="G173" t="s">
         <v>12</v>
       </c>
-      <c r="G173">
+      <c r="H173">
         <v>0.33856043026979932</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C174">
         <v>4</v>
       </c>
-      <c r="D174" t="s">
-        <v>10</v>
+      <c r="D174">
+        <v>4</v>
       </c>
       <c r="E174" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F174" t="s">
+        <v>7</v>
+      </c>
+      <c r="G174" t="s">
         <v>13</v>
       </c>
-      <c r="G174">
+      <c r="H174">
         <v>0.94756803589021887</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C175">
         <v>4</v>
       </c>
-      <c r="D175" t="s">
-        <v>8</v>
+      <c r="D175">
+        <v>4</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F175" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" t="s">
         <v>14</v>
       </c>
-      <c r="G175">
+      <c r="H175">
         <v>0.58011817907666297</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4474,20 +5002,23 @@
       <c r="C176">
         <v>4</v>
       </c>
-      <c r="D176" t="s">
-        <v>8</v>
+      <c r="D176">
+        <v>4</v>
       </c>
       <c r="E176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F176" t="s">
+        <v>7</v>
+      </c>
+      <c r="G176" t="s">
         <v>9</v>
       </c>
-      <c r="G176">
+      <c r="H176">
         <v>0.29838369245737928</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4497,20 +5028,23 @@
       <c r="C177">
         <v>4</v>
       </c>
-      <c r="D177" t="s">
-        <v>10</v>
+      <c r="D177">
+        <v>4</v>
       </c>
       <c r="E177" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F177" t="s">
+        <v>7</v>
+      </c>
+      <c r="G177" t="s">
         <v>13</v>
       </c>
-      <c r="G177">
+      <c r="H177">
         <v>0.80147628973191642</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4520,20 +5054,23 @@
       <c r="C178">
         <v>4</v>
       </c>
-      <c r="D178" t="s">
-        <v>8</v>
+      <c r="D178">
+        <v>4</v>
       </c>
       <c r="E178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F178" t="s">
+        <v>7</v>
+      </c>
+      <c r="G178" t="s">
         <v>9</v>
       </c>
-      <c r="G178">
+      <c r="H178">
         <v>0.53012382867844665</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4543,20 +5080,23 @@
       <c r="C179">
         <v>4</v>
       </c>
-      <c r="D179" t="s">
-        <v>8</v>
+      <c r="D179">
+        <v>4</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F179" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" t="s">
         <v>13</v>
       </c>
-      <c r="G179">
+      <c r="H179">
         <v>0.2488639726503328</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4566,20 +5106,23 @@
       <c r="C180">
         <v>4</v>
       </c>
-      <c r="D180" t="s">
-        <v>10</v>
+      <c r="D180">
+        <v>4</v>
       </c>
       <c r="E180" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F180" t="s">
+        <v>7</v>
+      </c>
+      <c r="G180" t="s">
         <v>9</v>
       </c>
-      <c r="G180">
+      <c r="H180">
         <v>0.2971089715582198</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4589,20 +5132,23 @@
       <c r="C181">
         <v>4</v>
       </c>
-      <c r="D181" t="s">
-        <v>7</v>
+      <c r="D181">
+        <v>4</v>
       </c>
       <c r="E181" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F181" t="s">
+        <v>8</v>
+      </c>
+      <c r="G181" t="s">
         <v>13</v>
       </c>
-      <c r="G181">
+      <c r="H181">
         <v>0.59120079041234463</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4612,20 +5158,23 @@
       <c r="C182">
         <v>4</v>
       </c>
-      <c r="D182" t="s">
-        <v>7</v>
+      <c r="D182">
+        <v>4</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F182" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" t="s">
         <v>11</v>
       </c>
-      <c r="G182">
+      <c r="H182">
         <v>0.1551255942543959</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4635,20 +5184,23 @@
       <c r="C183">
         <v>4</v>
       </c>
-      <c r="D183" t="s">
-        <v>8</v>
+      <c r="D183">
+        <v>4</v>
       </c>
       <c r="E183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F183" t="s">
+        <v>7</v>
+      </c>
+      <c r="G183" t="s">
         <v>13</v>
       </c>
-      <c r="G183">
+      <c r="H183">
         <v>0.45438877569066272</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4658,20 +5210,23 @@
       <c r="C184">
         <v>4</v>
       </c>
-      <c r="D184" t="s">
-        <v>10</v>
+      <c r="D184">
+        <v>4</v>
       </c>
       <c r="E184" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F184" t="s">
+        <v>8</v>
+      </c>
+      <c r="G184" t="s">
         <v>9</v>
       </c>
-      <c r="G184">
+      <c r="H184">
         <v>1.7876040357563631E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4681,20 +5236,23 @@
       <c r="C185">
         <v>4</v>
       </c>
-      <c r="D185" t="s">
-        <v>8</v>
+      <c r="D185">
+        <v>4</v>
       </c>
       <c r="E185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F185" t="s">
+        <v>7</v>
+      </c>
+      <c r="G185" t="s">
         <v>14</v>
       </c>
-      <c r="G185">
+      <c r="H185">
         <v>0.96110253354190522</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4704,20 +5262,23 @@
       <c r="C186">
         <v>4</v>
       </c>
-      <c r="D186" t="s">
-        <v>8</v>
+      <c r="D186">
+        <v>4</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F186" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" t="s">
         <v>11</v>
       </c>
-      <c r="G186">
+      <c r="H186">
         <v>0.4825142713757381</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4727,20 +5288,23 @@
       <c r="C187">
         <v>4</v>
       </c>
-      <c r="D187" t="s">
-        <v>7</v>
+      <c r="D187">
+        <v>4</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F187" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" t="s">
         <v>13</v>
       </c>
-      <c r="G187">
+      <c r="H187">
         <v>0.80885707066289902</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4750,20 +5314,23 @@
       <c r="C188">
         <v>4</v>
       </c>
-      <c r="D188" t="s">
-        <v>10</v>
+      <c r="D188">
+        <v>4</v>
       </c>
       <c r="E188" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F188" t="s">
+        <v>8</v>
+      </c>
+      <c r="G188" t="s">
         <v>11</v>
       </c>
-      <c r="G188">
+      <c r="H188">
         <v>0.20367619959007199</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4773,20 +5340,23 @@
       <c r="C189">
         <v>4</v>
       </c>
-      <c r="D189" t="s">
-        <v>7</v>
+      <c r="D189">
+        <v>4</v>
       </c>
       <c r="E189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F189" t="s">
+        <v>8</v>
+      </c>
+      <c r="G189" t="s">
         <v>13</v>
       </c>
-      <c r="G189">
+      <c r="H189">
         <v>0.77672584299460445</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -4796,20 +5366,23 @@
       <c r="C190">
         <v>4</v>
       </c>
-      <c r="D190" t="s">
-        <v>10</v>
+      <c r="D190">
+        <v>4</v>
       </c>
       <c r="E190" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F190" t="s">
+        <v>7</v>
+      </c>
+      <c r="G190" t="s">
         <v>9</v>
       </c>
-      <c r="G190">
+      <c r="H190">
         <v>0.3244233541138265</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -4819,20 +5392,23 @@
       <c r="C191">
         <v>4</v>
       </c>
-      <c r="D191" t="s">
-        <v>10</v>
+      <c r="D191">
+        <v>4</v>
       </c>
       <c r="E191" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F191" t="s">
+        <v>8</v>
+      </c>
+      <c r="G191" t="s">
         <v>13</v>
       </c>
-      <c r="G191">
+      <c r="H191">
         <v>0.39489832608894448</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -4842,20 +5418,23 @@
       <c r="C192">
         <v>4</v>
       </c>
-      <c r="D192" t="s">
-        <v>10</v>
+      <c r="D192">
+        <v>4</v>
       </c>
       <c r="E192" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F192" t="s">
+        <v>7</v>
+      </c>
+      <c r="G192" t="s">
         <v>12</v>
       </c>
-      <c r="G192">
+      <c r="H192">
         <v>0.57176192345747801</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -4865,917 +5444,1037 @@
       <c r="C193">
         <v>4</v>
       </c>
-      <c r="D193" t="s">
-        <v>8</v>
+      <c r="D193">
+        <v>4</v>
       </c>
       <c r="E193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F193" t="s">
+        <v>7</v>
+      </c>
+      <c r="G193" t="s">
         <v>13</v>
       </c>
-      <c r="G193">
+      <c r="H193">
         <v>0.4450371752145873</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C194">
         <v>5</v>
       </c>
-      <c r="D194" t="s">
-        <v>10</v>
+      <c r="D194">
+        <v>5</v>
       </c>
       <c r="E194" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F194" t="s">
+        <v>8</v>
+      </c>
+      <c r="G194" t="s">
         <v>9</v>
       </c>
-      <c r="G194">
+      <c r="H194">
         <v>0.59661963978522103</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C195">
         <v>5</v>
       </c>
-      <c r="D195" t="s">
-        <v>10</v>
+      <c r="D195">
+        <v>5</v>
       </c>
       <c r="E195" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F195" t="s">
+        <v>7</v>
+      </c>
+      <c r="G195" t="s">
         <v>11</v>
       </c>
-      <c r="G195">
+      <c r="H195">
         <v>0.94463601175024581</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C196">
         <v>5</v>
       </c>
-      <c r="D196" t="s">
-        <v>8</v>
+      <c r="D196">
+        <v>5</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F196" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" t="s">
         <v>14</v>
       </c>
-      <c r="G196">
+      <c r="H196">
         <v>0.67080195142576104</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C197">
         <v>5</v>
       </c>
-      <c r="D197" t="s">
-        <v>10</v>
+      <c r="D197">
+        <v>5</v>
       </c>
       <c r="E197" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F197" t="s">
+        <v>7</v>
+      </c>
+      <c r="G197" t="s">
         <v>13</v>
       </c>
-      <c r="G197">
+      <c r="H197">
         <v>0.1774322328251734</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C198">
         <v>5</v>
       </c>
-      <c r="D198" t="s">
-        <v>8</v>
+      <c r="D198">
+        <v>5</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F198" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" t="s">
         <v>9</v>
       </c>
-      <c r="G198">
+      <c r="H198">
         <v>0.28303156219882047</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C199">
         <v>5</v>
       </c>
-      <c r="D199" t="s">
-        <v>8</v>
+      <c r="D199">
+        <v>5</v>
       </c>
       <c r="E199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F199" t="s">
+        <v>7</v>
+      </c>
+      <c r="G199" t="s">
         <v>11</v>
       </c>
-      <c r="G199">
+      <c r="H199">
         <v>0.91444509139458152</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C200">
         <v>5</v>
       </c>
-      <c r="D200" t="s">
-        <v>10</v>
+      <c r="D200">
+        <v>5</v>
       </c>
       <c r="E200" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F200" t="s">
+        <v>7</v>
+      </c>
+      <c r="G200" t="s">
         <v>9</v>
       </c>
-      <c r="G200">
+      <c r="H200">
         <v>0.98645666380525476</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C201">
         <v>5</v>
       </c>
-      <c r="D201" t="s">
-        <v>7</v>
+      <c r="D201">
+        <v>5</v>
       </c>
       <c r="E201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F201" t="s">
+        <v>8</v>
+      </c>
+      <c r="G201" t="s">
         <v>11</v>
       </c>
-      <c r="G201">
+      <c r="H201">
         <v>0.1788059156024234</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C202">
         <v>5</v>
       </c>
-      <c r="D202" t="s">
-        <v>7</v>
+      <c r="D202">
+        <v>5</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F202" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" t="s">
         <v>13</v>
       </c>
-      <c r="G202">
+      <c r="H202">
         <v>0.64629189023189759</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C203">
         <v>5</v>
       </c>
-      <c r="D203" t="s">
-        <v>7</v>
+      <c r="D203">
+        <v>5</v>
       </c>
       <c r="E203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F203" t="s">
+        <v>8</v>
+      </c>
+      <c r="G203" t="s">
         <v>9</v>
       </c>
-      <c r="G203">
+      <c r="H203">
         <v>0.25250550516866388</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C204">
         <v>5</v>
       </c>
-      <c r="D204" t="s">
-        <v>8</v>
+      <c r="D204">
+        <v>5</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F204" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" t="s">
         <v>11</v>
       </c>
-      <c r="G204">
+      <c r="H204">
         <v>0.1376961130350601</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C205">
         <v>5</v>
       </c>
-      <c r="D205" t="s">
-        <v>10</v>
+      <c r="D205">
+        <v>5</v>
       </c>
       <c r="E205" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F205" t="s">
+        <v>7</v>
+      </c>
+      <c r="G205" t="s">
         <v>13</v>
       </c>
-      <c r="G205">
+      <c r="H205">
         <v>0.22525832296218801</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C206">
         <v>5</v>
       </c>
-      <c r="D206" t="s">
-        <v>10</v>
+      <c r="D206">
+        <v>5</v>
       </c>
       <c r="E206" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F206" t="s">
+        <v>8</v>
+      </c>
+      <c r="G206" t="s">
         <v>9</v>
       </c>
-      <c r="G206">
+      <c r="H206">
         <v>0.62966965612615333</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C207">
         <v>5</v>
       </c>
-      <c r="D207" t="s">
-        <v>10</v>
+      <c r="D207">
+        <v>5</v>
       </c>
       <c r="E207" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F207" t="s">
+        <v>7</v>
+      </c>
+      <c r="G207" t="s">
         <v>11</v>
       </c>
-      <c r="G207">
+      <c r="H207">
         <v>0.97956016317732275</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C208">
         <v>5</v>
       </c>
-      <c r="D208" t="s">
-        <v>8</v>
+      <c r="D208">
+        <v>5</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F208" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" t="s">
         <v>13</v>
       </c>
-      <c r="G208">
+      <c r="H208">
         <v>0.90025982086265144</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C209">
         <v>5</v>
       </c>
-      <c r="D209" t="s">
-        <v>7</v>
+      <c r="D209">
+        <v>5</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F209" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" t="s">
         <v>12</v>
       </c>
-      <c r="G209">
+      <c r="H209">
         <v>0.46980606208819681</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C210">
         <v>5</v>
       </c>
-      <c r="D210" t="s">
-        <v>7</v>
+      <c r="D210">
+        <v>5</v>
       </c>
       <c r="E210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F210" t="s">
+        <v>8</v>
+      </c>
+      <c r="G210" t="s">
         <v>11</v>
       </c>
-      <c r="G210">
+      <c r="H210">
         <v>0.39259609968835463</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C211">
         <v>5</v>
       </c>
-      <c r="D211" t="s">
-        <v>10</v>
+      <c r="D211">
+        <v>5</v>
       </c>
       <c r="E211" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F211" t="s">
+        <v>8</v>
+      </c>
+      <c r="G211" t="s">
         <v>13</v>
       </c>
-      <c r="G211">
+      <c r="H211">
         <v>0.46596889301188538</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C212">
         <v>5</v>
       </c>
-      <c r="D212" t="s">
-        <v>7</v>
+      <c r="D212">
+        <v>5</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F212" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" t="s">
         <v>11</v>
       </c>
-      <c r="G212">
+      <c r="H212">
         <v>0.7936357166914314</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C213">
         <v>5</v>
       </c>
-      <c r="D213" t="s">
-        <v>7</v>
+      <c r="D213">
+        <v>5</v>
       </c>
       <c r="E213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F213" t="s">
+        <v>8</v>
+      </c>
+      <c r="G213" t="s">
         <v>12</v>
       </c>
-      <c r="G213">
+      <c r="H213">
         <v>0.73312305965897262</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C214">
         <v>5</v>
       </c>
-      <c r="D214" t="s">
-        <v>7</v>
+      <c r="D214">
+        <v>5</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F214" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" t="s">
         <v>13</v>
       </c>
-      <c r="G214">
+      <c r="H214">
         <v>0.37870199249114977</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C215">
         <v>5</v>
       </c>
-      <c r="D215" t="s">
-        <v>10</v>
+      <c r="D215">
+        <v>5</v>
       </c>
       <c r="E215" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F215" t="s">
+        <v>8</v>
+      </c>
+      <c r="G215" t="s">
         <v>14</v>
       </c>
-      <c r="G215">
+      <c r="H215">
         <v>0.8829949383788962</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C216">
         <v>5</v>
       </c>
-      <c r="D216" t="s">
-        <v>7</v>
+      <c r="D216">
+        <v>5</v>
       </c>
       <c r="E216" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F216" t="s">
+        <v>8</v>
+      </c>
+      <c r="G216" t="s">
         <v>9</v>
       </c>
-      <c r="G216">
+      <c r="H216">
         <v>0.1676216554538151</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C217">
         <v>5</v>
       </c>
-      <c r="D217" t="s">
-        <v>8</v>
+      <c r="D217">
+        <v>5</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F217" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" t="s">
         <v>11</v>
       </c>
-      <c r="G217">
+      <c r="H217">
         <v>0.97285722997458957</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C218">
         <v>5</v>
       </c>
-      <c r="D218" t="s">
-        <v>8</v>
+      <c r="D218">
+        <v>5</v>
       </c>
       <c r="E218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F218" t="s">
+        <v>7</v>
+      </c>
+      <c r="G218" t="s">
         <v>9</v>
       </c>
-      <c r="G218">
+      <c r="H218">
         <v>0.88730992196056779</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C219">
         <v>5</v>
       </c>
-      <c r="D219" t="s">
-        <v>7</v>
+      <c r="D219">
+        <v>5</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F219" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" t="s">
         <v>14</v>
       </c>
-      <c r="G219">
+      <c r="H219">
         <v>0.81881121914450472</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C220">
         <v>5</v>
       </c>
-      <c r="D220" t="s">
-        <v>8</v>
+      <c r="D220">
+        <v>5</v>
       </c>
       <c r="E220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F220" t="s">
+        <v>7</v>
+      </c>
+      <c r="G220" t="s">
         <v>13</v>
       </c>
-      <c r="G220">
+      <c r="H220">
         <v>0.70549340161251439</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C221">
         <v>5</v>
       </c>
-      <c r="D221" t="s">
-        <v>10</v>
+      <c r="D221">
+        <v>5</v>
       </c>
       <c r="E221" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F221" t="s">
+        <v>8</v>
+      </c>
+      <c r="G221" t="s">
         <v>12</v>
       </c>
-      <c r="G221">
+      <c r="H221">
         <v>0.42998288296432541</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C222">
         <v>5</v>
       </c>
-      <c r="D222" t="s">
-        <v>8</v>
+      <c r="D222">
+        <v>5</v>
       </c>
       <c r="E222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F222" t="s">
+        <v>7</v>
+      </c>
+      <c r="G222" t="s">
         <v>9</v>
       </c>
-      <c r="G222">
+      <c r="H222">
         <v>0.1990102876245721</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C223">
         <v>5</v>
       </c>
-      <c r="D223" t="s">
-        <v>8</v>
+      <c r="D223">
+        <v>5</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F223" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" t="s">
         <v>12</v>
       </c>
-      <c r="G223">
+      <c r="H223">
         <v>0.43407819161644329</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C224">
         <v>5</v>
       </c>
-      <c r="D224" t="s">
-        <v>8</v>
+      <c r="D224">
+        <v>5</v>
       </c>
       <c r="E224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F224" t="s">
+        <v>7</v>
+      </c>
+      <c r="G224" t="s">
         <v>14</v>
       </c>
-      <c r="G224">
+      <c r="H224">
         <v>0.9154289334654131</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C225">
         <v>5</v>
       </c>
-      <c r="D225" t="s">
-        <v>8</v>
+      <c r="D225">
+        <v>5</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F225" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" t="s">
         <v>13</v>
       </c>
-      <c r="G225">
+      <c r="H225">
         <v>0.3730416318822557</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C226">
         <v>5</v>
       </c>
-      <c r="D226" t="s">
-        <v>7</v>
+      <c r="D226">
+        <v>5</v>
       </c>
       <c r="E226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F226" t="s">
+        <v>8</v>
+      </c>
+      <c r="G226" t="s">
         <v>14</v>
       </c>
-      <c r="G226">
+      <c r="H226">
         <v>0.53373241332688504</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C227">
         <v>5</v>
       </c>
-      <c r="D227" t="s">
-        <v>7</v>
+      <c r="D227">
+        <v>5</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F227" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" t="s">
         <v>9</v>
       </c>
-      <c r="G227">
+      <c r="H227">
         <v>0.40119290932251878</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C228">
         <v>5</v>
       </c>
-      <c r="D228" t="s">
-        <v>8</v>
+      <c r="D228">
+        <v>5</v>
       </c>
       <c r="E228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F228" t="s">
+        <v>7</v>
+      </c>
+      <c r="G228" t="s">
         <v>11</v>
       </c>
-      <c r="G228">
+      <c r="H228">
         <v>8.6688042242080821E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C229">
         <v>5</v>
       </c>
-      <c r="D229" t="s">
-        <v>10</v>
+      <c r="D229">
+        <v>5</v>
       </c>
       <c r="E229" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F229" t="s">
+        <v>7</v>
+      </c>
+      <c r="G229" t="s">
         <v>9</v>
       </c>
-      <c r="G229">
+      <c r="H229">
         <v>0.68341600035803707</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C230">
         <v>5</v>
       </c>
-      <c r="D230" t="s">
-        <v>8</v>
+      <c r="D230">
+        <v>5</v>
       </c>
       <c r="E230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F230" t="s">
+        <v>7</v>
+      </c>
+      <c r="G230" t="s">
         <v>12</v>
       </c>
-      <c r="G230">
+      <c r="H230">
         <v>2.892329886242107E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C231">
         <v>5</v>
       </c>
-      <c r="D231" t="s">
-        <v>10</v>
+      <c r="D231">
+        <v>5</v>
       </c>
       <c r="E231" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F231" t="s">
+        <v>8</v>
+      </c>
+      <c r="G231" t="s">
         <v>11</v>
       </c>
-      <c r="G231">
+      <c r="H231">
         <v>0.60683251050327847</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C232">
         <v>5</v>
       </c>
-      <c r="D232" t="s">
-        <v>8</v>
+      <c r="D232">
+        <v>5</v>
       </c>
       <c r="E232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F232" t="s">
+        <v>7</v>
+      </c>
+      <c r="G232" t="s">
         <v>13</v>
       </c>
-      <c r="G232">
+      <c r="H232">
         <v>0.67037591831676591</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -5785,20 +6484,23 @@
       <c r="C233">
         <v>5</v>
       </c>
-      <c r="D233" t="s">
-        <v>7</v>
+      <c r="D233">
+        <v>5</v>
       </c>
       <c r="E233" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F233" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" t="s">
         <v>9</v>
       </c>
-      <c r="G233">
+      <c r="H233">
         <v>0.22345451620637721</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -5808,20 +6510,23 @@
       <c r="C234">
         <v>5</v>
       </c>
-      <c r="D234" t="s">
-        <v>10</v>
+      <c r="D234">
+        <v>5</v>
       </c>
       <c r="E234" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F234" t="s">
+        <v>8</v>
+      </c>
+      <c r="G234" t="s">
         <v>13</v>
       </c>
-      <c r="G234">
+      <c r="H234">
         <v>0.60353227412170396</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -5831,20 +6536,23 @@
       <c r="C235">
         <v>5</v>
       </c>
-      <c r="D235" t="s">
-        <v>7</v>
+      <c r="D235">
+        <v>5</v>
       </c>
       <c r="E235" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F235" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" t="s">
         <v>11</v>
       </c>
-      <c r="G235">
+      <c r="H235">
         <v>7.1548004447163027E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -5854,20 +6562,23 @@
       <c r="C236">
         <v>5</v>
       </c>
-      <c r="D236" t="s">
-        <v>8</v>
+      <c r="D236">
+        <v>5</v>
       </c>
       <c r="E236" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F236" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" t="s">
         <v>9</v>
       </c>
-      <c r="G236">
+      <c r="H236">
         <v>0.34476621393488371</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -5877,20 +6588,23 @@
       <c r="C237">
         <v>5</v>
       </c>
-      <c r="D237" t="s">
-        <v>7</v>
+      <c r="D237">
+        <v>5</v>
       </c>
       <c r="E237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F237" t="s">
+        <v>8</v>
+      </c>
+      <c r="G237" t="s">
         <v>13</v>
       </c>
-      <c r="G237">
+      <c r="H237">
         <v>0.63413927306374041</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -5900,20 +6614,23 @@
       <c r="C238">
         <v>5</v>
       </c>
-      <c r="D238" t="s">
-        <v>10</v>
+      <c r="D238">
+        <v>5</v>
       </c>
       <c r="E238" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F238" t="s">
+        <v>7</v>
+      </c>
+      <c r="G238" t="s">
         <v>14</v>
       </c>
-      <c r="G238">
+      <c r="H238">
         <v>0.13540556325479169</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -5923,20 +6640,23 @@
       <c r="C239">
         <v>5</v>
       </c>
-      <c r="D239" t="s">
-        <v>10</v>
+      <c r="D239">
+        <v>5</v>
       </c>
       <c r="E239" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F239" t="s">
+        <v>8</v>
+      </c>
+      <c r="G239" t="s">
         <v>11</v>
       </c>
-      <c r="G239">
+      <c r="H239">
         <v>0.87957402387251349</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -5946,20 +6666,23 @@
       <c r="C240">
         <v>5</v>
       </c>
-      <c r="D240" t="s">
-        <v>10</v>
+      <c r="D240">
+        <v>5</v>
       </c>
       <c r="E240" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F240" t="s">
+        <v>7</v>
+      </c>
+      <c r="G240" t="s">
         <v>12</v>
       </c>
-      <c r="G240">
+      <c r="H240">
         <v>0.42561304217120582</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -5969,1120 +6692,1267 @@
       <c r="C241">
         <v>5</v>
       </c>
-      <c r="D241" t="s">
-        <v>7</v>
+      <c r="D241">
+        <v>5</v>
       </c>
       <c r="E241" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F241" t="s">
+        <v>8</v>
+      </c>
+      <c r="G241" t="s">
         <v>13</v>
       </c>
-      <c r="G241">
+      <c r="H241">
         <v>0.79156445576072199</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C242">
         <v>6</v>
       </c>
-      <c r="D242" t="s">
-        <v>8</v>
+      <c r="D242">
+        <v>6</v>
       </c>
       <c r="E242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F242" t="s">
+        <v>7</v>
+      </c>
+      <c r="G242" t="s">
         <v>9</v>
       </c>
-      <c r="G242">
+      <c r="H242">
         <v>0.58333245703426884</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C243">
         <v>6</v>
       </c>
-      <c r="D243" t="s">
-        <v>8</v>
+      <c r="D243">
+        <v>6</v>
       </c>
       <c r="E243" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F243" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" t="s">
         <v>13</v>
       </c>
-      <c r="G243">
+      <c r="H243">
         <v>0.74446437530933196</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C244">
         <v>6</v>
       </c>
-      <c r="D244" t="s">
-        <v>8</v>
+      <c r="D244">
+        <v>6</v>
       </c>
       <c r="E244" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F244" t="s">
+        <v>7</v>
+      </c>
+      <c r="G244" t="s">
         <v>12</v>
       </c>
-      <c r="G244">
+      <c r="H244">
         <v>0.83682080859761332</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C245">
         <v>6</v>
       </c>
-      <c r="D245" t="s">
-        <v>10</v>
+      <c r="D245">
+        <v>6</v>
       </c>
       <c r="E245" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F245" t="s">
+        <v>8</v>
+      </c>
+      <c r="G245" t="s">
         <v>13</v>
       </c>
-      <c r="G245">
+      <c r="H245">
         <v>0.56004327572599921</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C246">
         <v>6</v>
       </c>
-      <c r="D246" t="s">
-        <v>10</v>
+      <c r="D246">
+        <v>6</v>
       </c>
       <c r="E246" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F246" t="s">
+        <v>7</v>
+      </c>
+      <c r="G246" t="s">
         <v>11</v>
       </c>
-      <c r="G246">
+      <c r="H246">
         <v>0.55972501409250708</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C247">
         <v>6</v>
       </c>
-      <c r="D247" t="s">
-        <v>7</v>
+      <c r="D247">
+        <v>6</v>
       </c>
       <c r="E247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F247" t="s">
+        <v>8</v>
+      </c>
+      <c r="G247" t="s">
         <v>13</v>
       </c>
-      <c r="G247">
+      <c r="H247">
         <v>0.38466095090301228</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248">
         <v>6</v>
       </c>
-      <c r="D248" t="s">
-        <v>7</v>
+      <c r="D248">
+        <v>6</v>
       </c>
       <c r="E248" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F248" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" t="s">
         <v>9</v>
       </c>
-      <c r="G248">
+      <c r="H248">
         <v>0.69652842814518534</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249">
         <v>6</v>
       </c>
-      <c r="D249" t="s">
-        <v>8</v>
+      <c r="D249">
+        <v>6</v>
       </c>
       <c r="E249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F249" t="s">
+        <v>7</v>
+      </c>
+      <c r="G249" t="s">
         <v>11</v>
       </c>
-      <c r="G249">
+      <c r="H249">
         <v>0.90908990607228279</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C250">
         <v>6</v>
       </c>
-      <c r="D250" t="s">
-        <v>8</v>
+      <c r="D250">
+        <v>6</v>
       </c>
       <c r="E250" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F250" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" t="s">
         <v>9</v>
       </c>
-      <c r="G250">
+      <c r="H250">
         <v>0.84950577202766819</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C251">
         <v>6</v>
       </c>
-      <c r="D251" t="s">
-        <v>7</v>
+      <c r="D251">
+        <v>6</v>
       </c>
       <c r="E251" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F251" t="s">
+        <v>8</v>
+      </c>
+      <c r="G251" t="s">
         <v>11</v>
       </c>
-      <c r="G251">
+      <c r="H251">
         <v>0.96806970877140963</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C252">
         <v>6</v>
       </c>
-      <c r="D252" t="s">
-        <v>10</v>
+      <c r="D252">
+        <v>6</v>
       </c>
       <c r="E252" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F252" t="s">
+        <v>8</v>
+      </c>
+      <c r="G252" t="s">
         <v>9</v>
       </c>
-      <c r="G252">
+      <c r="H252">
         <v>0.83505417527761283</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C253">
         <v>6</v>
       </c>
-      <c r="D253" t="s">
-        <v>7</v>
+      <c r="D253">
+        <v>6</v>
       </c>
       <c r="E253" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F253" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253" t="s">
         <v>13</v>
       </c>
-      <c r="G253">
+      <c r="H253">
         <v>5.3116597993488557E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C254">
         <v>6</v>
       </c>
-      <c r="D254" t="s">
-        <v>8</v>
+      <c r="D254">
+        <v>6</v>
       </c>
       <c r="E254" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F254" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" t="s">
         <v>11</v>
       </c>
-      <c r="G254">
+      <c r="H254">
         <v>0.76510376388355439</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C255">
         <v>6</v>
       </c>
-      <c r="D255" t="s">
-        <v>10</v>
+      <c r="D255">
+        <v>6</v>
       </c>
       <c r="E255" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F255" t="s">
+        <v>7</v>
+      </c>
+      <c r="G255" t="s">
         <v>9</v>
       </c>
-      <c r="G255">
+      <c r="H255">
         <v>0.97425125525320611</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C256">
         <v>6</v>
       </c>
-      <c r="D256" t="s">
-        <v>7</v>
+      <c r="D256">
+        <v>6</v>
       </c>
       <c r="E256" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F256" t="s">
+        <v>8</v>
+      </c>
+      <c r="G256" t="s">
         <v>14</v>
       </c>
-      <c r="G256">
+      <c r="H256">
         <v>3.923501890409975E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C257">
         <v>6</v>
       </c>
-      <c r="D257" t="s">
-        <v>10</v>
+      <c r="D257">
+        <v>6</v>
       </c>
       <c r="E257" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F257" t="s">
+        <v>7</v>
+      </c>
+      <c r="G257" t="s">
         <v>11</v>
       </c>
-      <c r="G257">
+      <c r="H257">
         <v>0.21814772415895539</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C258">
         <v>6</v>
       </c>
-      <c r="D258" t="s">
-        <v>8</v>
+      <c r="D258">
+        <v>6</v>
       </c>
       <c r="E258" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F258" t="s">
+        <v>7</v>
+      </c>
+      <c r="G258" t="s">
         <v>9</v>
       </c>
-      <c r="G258">
+      <c r="H258">
         <v>0.35940869629879829</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C259">
         <v>6</v>
       </c>
-      <c r="D259" t="s">
-        <v>10</v>
+      <c r="D259">
+        <v>6</v>
       </c>
       <c r="E259" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F259" t="s">
+        <v>8</v>
+      </c>
+      <c r="G259" t="s">
         <v>11</v>
       </c>
-      <c r="G259">
+      <c r="H259">
         <v>0.19633130759912551</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C260">
         <v>6</v>
       </c>
-      <c r="D260" t="s">
-        <v>10</v>
+      <c r="D260">
+        <v>6</v>
       </c>
       <c r="E260" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F260" t="s">
+        <v>7</v>
+      </c>
+      <c r="G260" t="s">
         <v>12</v>
       </c>
-      <c r="G260">
+      <c r="H260">
         <v>0.82035744560883883</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
       <c r="B261">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C261">
         <v>6</v>
       </c>
-      <c r="D261" t="s">
-        <v>8</v>
+      <c r="D261">
+        <v>6</v>
       </c>
       <c r="E261" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F261" t="s">
+        <v>10</v>
+      </c>
+      <c r="G261" t="s">
         <v>11</v>
       </c>
-      <c r="G261">
+      <c r="H261">
         <v>0.16224884395322531</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
       <c r="B262">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C262">
         <v>6</v>
       </c>
-      <c r="D262" t="s">
-        <v>10</v>
+      <c r="D262">
+        <v>6</v>
       </c>
       <c r="E262" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F262" t="s">
+        <v>7</v>
+      </c>
+      <c r="G262" t="s">
         <v>9</v>
       </c>
-      <c r="G262">
+      <c r="H262">
         <v>0.95660048011336896</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
       <c r="B263">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C263">
         <v>6</v>
       </c>
-      <c r="D263" t="s">
-        <v>8</v>
+      <c r="D263">
+        <v>6</v>
       </c>
       <c r="E263" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F263" t="s">
+        <v>10</v>
+      </c>
+      <c r="G263" t="s">
         <v>13</v>
       </c>
-      <c r="G263">
+      <c r="H263">
         <v>0.82207872331301624</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
       <c r="B264">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C264">
         <v>6</v>
       </c>
-      <c r="D264" t="s">
-        <v>10</v>
+      <c r="D264">
+        <v>6</v>
       </c>
       <c r="E264" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F264" t="s">
+        <v>7</v>
+      </c>
+      <c r="G264" t="s">
         <v>14</v>
       </c>
-      <c r="G264">
+      <c r="H264">
         <v>0.97464503447497497</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
       <c r="B265">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C265">
         <v>6</v>
       </c>
-      <c r="D265" t="s">
-        <v>8</v>
+      <c r="D265">
+        <v>6</v>
       </c>
       <c r="E265" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F265" t="s">
+        <v>10</v>
+      </c>
+      <c r="G265" t="s">
         <v>12</v>
       </c>
-      <c r="G265">
+      <c r="H265">
         <v>0.8006483628210832</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
       <c r="B266">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C266">
         <v>6</v>
       </c>
-      <c r="D266" t="s">
-        <v>8</v>
+      <c r="D266">
+        <v>6</v>
       </c>
       <c r="E266" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F266" t="s">
+        <v>7</v>
+      </c>
+      <c r="G266" t="s">
         <v>13</v>
       </c>
-      <c r="G266">
+      <c r="H266">
         <v>5.9156622882435728E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C267">
         <v>6</v>
       </c>
-      <c r="D267" t="s">
-        <v>10</v>
+      <c r="D267">
+        <v>6</v>
       </c>
       <c r="E267" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F267" t="s">
+        <v>8</v>
+      </c>
+      <c r="G267" t="s">
         <v>11</v>
       </c>
-      <c r="G267">
+      <c r="H267">
         <v>5.2227971527705641E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
       <c r="B268">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C268">
         <v>6</v>
       </c>
-      <c r="D268" t="s">
-        <v>10</v>
+      <c r="D268">
+        <v>6</v>
       </c>
       <c r="E268" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F268" t="s">
+        <v>7</v>
+      </c>
+      <c r="G268" t="s">
         <v>13</v>
       </c>
-      <c r="G268">
+      <c r="H268">
         <v>0.63380320102209298</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
       <c r="B269">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C269">
         <v>6</v>
       </c>
-      <c r="D269" t="s">
-        <v>10</v>
+      <c r="D269">
+        <v>6</v>
       </c>
       <c r="E269" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F269" t="s">
+        <v>8</v>
+      </c>
+      <c r="G269" t="s">
         <v>12</v>
       </c>
-      <c r="G269">
+      <c r="H269">
         <v>0.1148673595103193</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
       <c r="B270">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C270">
         <v>6</v>
       </c>
-      <c r="D270" t="s">
-        <v>10</v>
+      <c r="D270">
+        <v>6</v>
       </c>
       <c r="E270" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F270" t="s">
+        <v>7</v>
+      </c>
+      <c r="G270" t="s">
         <v>13</v>
       </c>
-      <c r="G270">
+      <c r="H270">
         <v>0.78156127380200402</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
       <c r="B271">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C271">
         <v>6</v>
       </c>
-      <c r="D271" t="s">
-        <v>8</v>
+      <c r="D271">
+        <v>6</v>
       </c>
       <c r="E271" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F271" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271" t="s">
         <v>14</v>
       </c>
-      <c r="G271">
+      <c r="H271">
         <v>2.501210983751578E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
       <c r="B272">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C272">
         <v>6</v>
       </c>
-      <c r="D272" t="s">
-        <v>7</v>
+      <c r="D272">
+        <v>6</v>
       </c>
       <c r="E272" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F272" t="s">
+        <v>10</v>
+      </c>
+      <c r="G272" t="s">
         <v>9</v>
       </c>
-      <c r="G272">
+      <c r="H272">
         <v>0.86883622296173935</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
       <c r="B273">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C273">
         <v>6</v>
       </c>
-      <c r="D273" t="s">
-        <v>8</v>
+      <c r="D273">
+        <v>6</v>
       </c>
       <c r="E273" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F273" t="s">
+        <v>7</v>
+      </c>
+      <c r="G273" t="s">
         <v>11</v>
       </c>
-      <c r="G273">
+      <c r="H273">
         <v>0.9368401102392514</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
       <c r="B274">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C274">
         <v>6</v>
       </c>
-      <c r="D274" t="s">
-        <v>7</v>
+      <c r="D274">
+        <v>6</v>
       </c>
       <c r="E274" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F274" t="s">
+        <v>10</v>
+      </c>
+      <c r="G274" t="s">
         <v>12</v>
       </c>
-      <c r="G274">
+      <c r="H274">
         <v>0.66546670726591461</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
       <c r="B275">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C275">
         <v>6</v>
       </c>
-      <c r="D275" t="s">
-        <v>7</v>
+      <c r="D275">
+        <v>6</v>
       </c>
       <c r="E275" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F275" t="s">
+        <v>8</v>
+      </c>
+      <c r="G275" t="s">
         <v>11</v>
       </c>
-      <c r="G275">
+      <c r="H275">
         <v>0.62500142249071322</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
       <c r="B276">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C276">
         <v>6</v>
       </c>
-      <c r="D276" t="s">
-        <v>10</v>
+      <c r="D276">
+        <v>6</v>
       </c>
       <c r="E276" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F276" t="s">
+        <v>8</v>
+      </c>
+      <c r="G276" t="s">
         <v>14</v>
       </c>
-      <c r="G276">
+      <c r="H276">
         <v>0.82019245949332731</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
       <c r="B277">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C277">
         <v>6</v>
       </c>
-      <c r="D277" t="s">
-        <v>7</v>
+      <c r="D277">
+        <v>6</v>
       </c>
       <c r="E277" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F277" t="s">
+        <v>10</v>
+      </c>
+      <c r="G277" t="s">
         <v>11</v>
       </c>
-      <c r="G277">
+      <c r="H277">
         <v>0.48184497680545813</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
       <c r="B278">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C278">
         <v>6</v>
       </c>
-      <c r="D278" t="s">
-        <v>8</v>
+      <c r="D278">
+        <v>6</v>
       </c>
       <c r="E278" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F278" t="s">
+        <v>7</v>
+      </c>
+      <c r="G278" t="s">
         <v>14</v>
       </c>
-      <c r="G278">
+      <c r="H278">
         <v>0.96353248400834857</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
       <c r="B279">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C279">
         <v>6</v>
       </c>
-      <c r="D279" t="s">
-        <v>10</v>
+      <c r="D279">
+        <v>6</v>
       </c>
       <c r="E279" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F279" t="s">
+        <v>8</v>
+      </c>
+      <c r="G279" t="s">
         <v>9</v>
       </c>
-      <c r="G279">
+      <c r="H279">
         <v>0.29087948100376099</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
       <c r="B280">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C280">
         <v>6</v>
       </c>
-      <c r="D280" t="s">
-        <v>7</v>
+      <c r="D280">
+        <v>6</v>
       </c>
       <c r="E280" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F280" t="s">
+        <v>8</v>
+      </c>
+      <c r="G280" t="s">
         <v>13</v>
       </c>
-      <c r="G280">
+      <c r="H280">
         <v>0.50798905464519584</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
       <c r="B281">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C281">
         <v>6</v>
       </c>
-      <c r="D281" t="s">
-        <v>7</v>
+      <c r="D281">
+        <v>6</v>
       </c>
       <c r="E281" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F281" t="s">
+        <v>10</v>
+      </c>
+      <c r="G281" t="s">
         <v>14</v>
       </c>
-      <c r="G281">
+      <c r="H281">
         <v>0.93127002988117258</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
       <c r="B282">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C282">
         <v>6</v>
       </c>
-      <c r="D282" t="s">
-        <v>7</v>
+      <c r="D282">
+        <v>6</v>
       </c>
       <c r="E282" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F282" t="s">
+        <v>8</v>
+      </c>
+      <c r="G282" t="s">
         <v>9</v>
       </c>
-      <c r="G282">
+      <c r="H282">
         <v>5.9850540469220781E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
       <c r="B283">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C283">
         <v>6</v>
       </c>
-      <c r="D283" t="s">
-        <v>10</v>
+      <c r="D283">
+        <v>6</v>
       </c>
       <c r="E283" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F283" t="s">
+        <v>8</v>
+      </c>
+      <c r="G283" t="s">
         <v>13</v>
       </c>
-      <c r="G283">
+      <c r="H283">
         <v>0.86037497212199365</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
       <c r="B284">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C284">
         <v>6</v>
       </c>
-      <c r="D284" t="s">
-        <v>7</v>
+      <c r="D284">
+        <v>6</v>
       </c>
       <c r="E284" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F284" t="s">
+        <v>10</v>
+      </c>
+      <c r="G284" t="s">
         <v>11</v>
       </c>
-      <c r="G284">
+      <c r="H284">
         <v>0.46970203243134412</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
       <c r="B285">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C285">
         <v>6</v>
       </c>
-      <c r="D285" t="s">
-        <v>8</v>
+      <c r="D285">
+        <v>6</v>
       </c>
       <c r="E285" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F285" t="s">
+        <v>7</v>
+      </c>
+      <c r="G285" t="s">
         <v>13</v>
       </c>
-      <c r="G285">
+      <c r="H285">
         <v>0.58559043988486126</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
       <c r="B286">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C286">
         <v>6</v>
       </c>
-      <c r="D286" t="s">
-        <v>8</v>
+      <c r="D286">
+        <v>6</v>
       </c>
       <c r="E286" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F286" t="s">
+        <v>10</v>
+      </c>
+      <c r="G286" t="s">
         <v>9</v>
       </c>
-      <c r="G286">
+      <c r="H286">
         <v>0.96467561040821947</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
       <c r="B287">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C287">
         <v>6</v>
       </c>
-      <c r="D287" t="s">
-        <v>7</v>
+      <c r="D287">
+        <v>6</v>
       </c>
       <c r="E287" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F287" t="s">
+        <v>8</v>
+      </c>
+      <c r="G287" t="s">
         <v>12</v>
       </c>
-      <c r="G287">
+      <c r="H287">
         <v>0.22836523551572829</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
       <c r="B288">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C288">
         <v>6</v>
       </c>
-      <c r="D288" t="s">
-        <v>7</v>
+      <c r="D288">
+        <v>6</v>
       </c>
       <c r="E288" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F288" t="s">
+        <v>10</v>
+      </c>
+      <c r="G288" t="s">
         <v>13</v>
       </c>
-      <c r="G288">
+      <c r="H288">
         <v>0.78650161667025087</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
       <c r="B289">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C289">
         <v>6</v>
       </c>
-      <c r="D289" t="s">
-        <v>7</v>
+      <c r="D289">
+        <v>6</v>
       </c>
       <c r="E289" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F289" t="s">
+        <v>8</v>
+      </c>
+      <c r="G289" t="s">
         <v>9</v>
       </c>
-      <c r="G289">
+      <c r="H289">
         <v>0.37456091009216302</v>
       </c>
     </row>
